--- a/history.xlsx
+++ b/history.xlsx
@@ -11,26 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Cheque  Number</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -73,20 +53,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
-  <autoFilter ref="A1:E9"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Reference"/>
-    <tableColumn id="3" name="Cheque  Number"/>
-    <tableColumn id="4" name="Amount"/>
-    <tableColumn id="5" name="Date"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,172 +340,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="5" width="12.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>40</v>
-      </c>
-      <c r="E5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>60</v>
-      </c>
-      <c r="B7">
-        <v>60</v>
-      </c>
-      <c r="C7">
-        <v>60</v>
-      </c>
-      <c r="D7">
-        <v>60</v>
-      </c>
-      <c r="E7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>70</v>
-      </c>
-      <c r="C8">
-        <v>70</v>
-      </c>
-      <c r="D8">
-        <v>70</v>
-      </c>
-      <c r="E8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <v>80</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="E9">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/history.xlsx
+++ b/history.xlsx
@@ -1,38 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Working" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +50,103 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,13 +434,444 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cheque  Number</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Whatever</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ref45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>07/06/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Another Whatever Two</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ref45</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>07/06/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Woulia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ref45</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>07/06/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Auksinins Kardas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ref897634</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>653.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Auksinins Kardas</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ref897634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>653.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Auksinins Kardas</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ref897634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>653.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Auksinins Kardas</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ref897634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>653.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>change</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ju67</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>894.2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>column list</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ju676</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>89.2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>column list</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ju676</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>89.2</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>column list</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ju676</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>89.2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>column list</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ju676</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>89.2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>row list</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09856</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>980</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Another Whatever</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ref45</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>chequeNo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>07/06/2022</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/history.xlsx
+++ b/history.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +822,75 @@
       <c r="E14" t="inlineStr">
         <is>
           <t>07/14/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sarunas Stoncelis</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ref78999</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8794</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7685.3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>07/26/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Jonathan Fire</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>paiment345</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0985</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>07/26/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>jjoo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>07/26/2022</t>
         </is>
       </c>
     </row>

--- a/history.xlsx
+++ b/history.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="September_2022" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="October_2022" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +33,9 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,13 +68,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -557,4 +570,428 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Cheque  Number</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Peter Pen</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>newerold</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>90892</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>876.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wodoo Magick</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19999.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Travel Guyde</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>coffe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>876.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Kim Jong Un</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dictator</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hong Cong</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ref566</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9899</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jim Beam</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>drink122</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8989</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Buda Buda</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>soul</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>199999.9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Spider Man</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>net</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>99.9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batmen Forever </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mice </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Another Test</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>referef</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Trick Track</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>juttt234</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tibeto Ezeras</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>222ref</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Belekas</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>submit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>07/10/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Harry Poter</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>magick01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>90893</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>876.5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>08/10/2022</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/history.xlsx
+++ b/history.xlsx
@@ -6,8 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="September_2022" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="October_2022" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="October_2022" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,9 +32,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -45,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,22 +64,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -489,509 +476,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jack</t>
+          <t>Robin Hood</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jhones</t>
+          <t>brave1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9088</t>
+          <t>8342</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>09/09/2022</t>
+          <t>11/10/2022 19:22:35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>James Blunt</t>
+          <t>Little John</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ref234</t>
+          <t>friend1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9089</t>
+          <t>8343</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>987.2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09/09/2022</t>
+          <t>11/10/2022 19:27:17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Michael Jackson</t>
+          <t>Merry Hood</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ref767676</t>
+          <t>friend2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>90891</t>
+          <t>8344</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>378.87</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>25/09/2022</t>
+          <t>11/10/2022 20:05:01</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Cheque  Number</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Peter Pen</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>newerold</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>90892</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>876.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Wodoo Magick</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19999.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Travel Guyde</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>coffe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>876.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Kim Jong Un</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Dictator</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Hong Cong</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ref566</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9899</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Jim Beam</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>drink122</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8989</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Buda Buda</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>soul</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>199999.9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Spider Man</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>net</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>99.9</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Batmen Forever </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mice </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>45.5</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Another Test</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>referef</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Trick Track</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>juttt234</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>777</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Tibeto Ezeras</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>222ref</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>666</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Belekas</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>submit</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>07/10/2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Harry Poter</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>magick01</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>90893</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>876.5</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>08/10/2022</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/history.xlsx
+++ b/history.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -32,6 +32,9 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -41,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -64,13 +67,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -438,36 +450,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Cheque  Number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -484,15 +496,11 @@
           <t>brave1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8342</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+      <c r="C2" t="n">
+        <v>8342</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -511,15 +519,11 @@
           <t>friend1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8343</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>987.2</t>
-        </is>
+      <c r="C3" t="n">
+        <v>8343</v>
+      </c>
+      <c r="D3" t="n">
+        <v>987.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -538,23 +542,46 @@
           <t>friend2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8344</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
+      <c r="C4" t="n">
+        <v>8344</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>11/10/2022 20:05:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>James Bond</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>agent007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8345</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21/10/2022 19:55:09</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>